--- a/MethodDemos/output/statistics/pdfx-AUTHORS.xlsx
+++ b/MethodDemos/output/statistics/pdfx-AUTHORS.xlsx
@@ -546,7 +546,7 @@
   <si>
     <t>Amirreza Tahamtan
 Rainer Kern
-Min Tjoa</t>
+A Min Tjoa</t>
   </si>
   <si>
     <t>TUW-203409</t>
@@ -777,7 +777,7 @@
   </si>
   <si>
     <t>Bogdan Ionescu
-Alexandru Lucian Gînsc
+Alexandru Lucian Gînscă
 Maia Zaharieva
 Bogdan Boteanu
 Mihai Lupu
